--- a/Ergebnisse für Nominatim.xlsx
+++ b/Ergebnisse für Nominatim.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse für Nominatim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1957,13 +1957,13 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="M2" s="1">
         <f>COUNTIF(I2:I1001,"&lt;=20")</f>
-        <v>625</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="M3" s="2">
         <f>COUNT(I2:I1001)-COUNTIF(I2:I1001,"&lt;=20")-COUNTIF(I2:I1001,"&gt;100")</f>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="M4" s="3">
         <f>COUNTIF(I2:I1001,"&gt;100")</f>
-        <v>295</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2123,13 +2123,13 @@
         <v>47.374461119999999</v>
       </c>
       <c r="G5">
-        <v>8.3840906000000004</v>
+        <v>8.4533261</v>
       </c>
       <c r="H5">
-        <v>47.403657699999997</v>
+        <v>47.372875299999997</v>
       </c>
       <c r="I5">
-        <v>7854.68</v>
+        <v>561.20000000000005</v>
       </c>
       <c r="L5" t="s">
         <v>380</v>
@@ -2246,13 +2246,13 @@
         <v>47.401657710000002</v>
       </c>
       <c r="G9">
-        <v>8.4479553000000003</v>
+        <v>8.4486969999999992</v>
       </c>
       <c r="H9">
-        <v>47.402065200000003</v>
+        <v>47.401652300000002</v>
       </c>
       <c r="I9">
-        <v>89.87</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2478,13 +2478,13 @@
         <v>47.374807480000001</v>
       </c>
       <c r="G17">
-        <v>8.3840906000000004</v>
+        <v>8.4533261</v>
       </c>
       <c r="H17">
-        <v>47.403657699999997</v>
+        <v>47.372875299999997</v>
       </c>
       <c r="I17">
-        <v>7934.47</v>
+        <v>479.03</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2507,13 +2507,13 @@
         <v>47.3740649</v>
       </c>
       <c r="G18">
-        <v>8.3840906000000004</v>
+        <v>8.4533261</v>
       </c>
       <c r="H18">
-        <v>47.403657699999997</v>
+        <v>47.372875299999997</v>
       </c>
       <c r="I18">
-        <v>7976.56</v>
+        <v>439.31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>47.394305559999999</v>
       </c>
       <c r="G19">
-        <v>8.5246113270786399</v>
+        <v>8.4491640091603699</v>
       </c>
       <c r="H19">
-        <v>47.314109799999997</v>
+        <v>47.394265400000002</v>
       </c>
       <c r="I19">
-        <v>12173.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2565,13 +2565,13 @@
         <v>47.395401360000001</v>
       </c>
       <c r="G20">
-        <v>8.4498659000000007</v>
+        <v>8.4495103491229493</v>
       </c>
       <c r="H20">
-        <v>47.395697699999999</v>
+        <v>47.395427599999998</v>
       </c>
       <c r="I20">
-        <v>43.99</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2710,13 +2710,13 @@
         <v>47.397335630000001</v>
       </c>
       <c r="G25">
-        <v>8.7350075</v>
+        <v>8.4500694999999997</v>
       </c>
       <c r="H25">
-        <v>47.537583099999999</v>
+        <v>47.397315300000002</v>
       </c>
       <c r="I25">
-        <v>35248.370000000003</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2768,13 +2768,13 @@
         <v>47.400802110000001</v>
       </c>
       <c r="G27">
-        <v>8.5629416999999997</v>
+        <v>8.4542607000000007</v>
       </c>
       <c r="H27">
-        <v>47.370509900000002</v>
+        <v>47.400980699999998</v>
       </c>
       <c r="I27">
-        <v>12987.12</v>
+        <v>464.18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2913,13 +2913,13 @@
         <v>47.406164820000001</v>
       </c>
       <c r="G32">
-        <v>8.5289359000000005</v>
+        <v>8.4487640000000006</v>
       </c>
       <c r="H32">
-        <v>47.386522200000002</v>
+        <v>47.4059083</v>
       </c>
       <c r="I32">
-        <v>9083.0300000000007</v>
+        <v>99.36</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2971,13 +2971,13 @@
         <v>47.411868839999997</v>
       </c>
       <c r="G34">
-        <v>8.4521999999999995</v>
+        <v>8.4504620999999993</v>
       </c>
       <c r="H34">
-        <v>47.411670000000001</v>
+        <v>47.411879200000001</v>
       </c>
       <c r="I34">
-        <v>195.47</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3029,13 +3029,13 @@
         <v>47.413429639999997</v>
       </c>
       <c r="G36">
-        <v>8.4231125999999996</v>
+        <v>8.4458140000000004</v>
       </c>
       <c r="H36">
-        <v>47.397398500000001</v>
+        <v>47.415035699999997</v>
       </c>
       <c r="I36">
-        <v>3466.28</v>
+        <v>491.73</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3087,13 +3087,13 @@
         <v>47.413765329999997</v>
       </c>
       <c r="G38">
-        <v>8.6359998999999998</v>
+        <v>8.4458140000000004</v>
       </c>
       <c r="H38">
-        <v>47.691477800000001</v>
+        <v>47.415035699999997</v>
       </c>
       <c r="I38">
-        <v>36883.089999999997</v>
+        <v>504.47</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3145,13 +3145,13 @@
         <v>47.370824079999998</v>
       </c>
       <c r="G40">
-        <v>8.4449953000000004</v>
+        <v>8.4135436000000006</v>
       </c>
       <c r="H40">
-        <v>47.395247099999999</v>
+        <v>47.399215599999998</v>
       </c>
       <c r="I40">
-        <v>2768.35</v>
+        <v>5205.6400000000003</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3174,13 +3174,13 @@
         <v>47.372816139999998</v>
       </c>
       <c r="G41">
-        <v>8.4227600999999996</v>
+        <v>8.4458631000000004</v>
       </c>
       <c r="H41">
-        <v>47.391131999999999</v>
+        <v>47.377161100000002</v>
       </c>
       <c r="I41">
-        <v>3624.66</v>
+        <v>651.79</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3348,13 +3348,13 @@
         <v>47.395323750000003</v>
       </c>
       <c r="G47">
-        <v>8.6332272999999997</v>
+        <v>8.4505632160447792</v>
       </c>
       <c r="H47">
-        <v>47.248690000000003</v>
+        <v>47.395300450000001</v>
       </c>
       <c r="I47">
-        <v>25936.57</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3464,13 +3464,13 @@
         <v>47.3976112</v>
       </c>
       <c r="G51">
-        <v>8.4514250000000004</v>
+        <v>8.4507425999999999</v>
       </c>
       <c r="H51">
-        <v>47.397800699999998</v>
+        <v>47.397618700000002</v>
       </c>
       <c r="I51">
-        <v>78.53</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -3522,13 +3522,13 @@
         <v>47.398441779999999</v>
       </c>
       <c r="G53">
-        <v>8.5441223999999991</v>
+        <v>8.4507252000000008</v>
       </c>
       <c r="H53">
-        <v>47.372076</v>
+        <v>47.398442299999999</v>
       </c>
       <c r="I53">
-        <v>10787.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -3551,13 +3551,13 @@
         <v>47.398376599999999</v>
       </c>
       <c r="G54">
-        <v>8.4535183184782596</v>
+        <v>8.4383046611803092</v>
       </c>
       <c r="H54">
-        <v>47.411952849999999</v>
+        <v>47.418181050000001</v>
       </c>
       <c r="I54">
-        <v>1512.81</v>
+        <v>2618.65</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3638,13 +3638,13 @@
         <v>47.410595809999997</v>
       </c>
       <c r="G57">
-        <v>8.4536700000000007</v>
+        <v>8.5271930982207103</v>
       </c>
       <c r="H57">
-        <v>47.410739999999997</v>
+        <v>47.390995199999999</v>
       </c>
       <c r="I57">
-        <v>281.51</v>
+        <v>8729.5300000000007</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -3754,13 +3754,13 @@
         <v>47.373915910000001</v>
       </c>
       <c r="G61">
-        <v>8.7312752987907292</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H61">
-        <v>47.507606549999998</v>
+        <v>47.3732854</v>
       </c>
       <c r="I61">
-        <v>34416.68</v>
+        <v>450.25</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -3783,13 +3783,13 @@
         <v>47.394226619999998</v>
       </c>
       <c r="G62">
-        <v>8.4521782000000005</v>
+        <v>8.4526361165243902</v>
       </c>
       <c r="H62">
-        <v>47.394149599999999</v>
+        <v>47.394237500000003</v>
       </c>
       <c r="I62">
-        <v>48.01</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -3841,13 +3841,13 @@
         <v>47.395803860000001</v>
       </c>
       <c r="G64">
-        <v>8.5941220000000005</v>
+        <v>8.4516312008148606</v>
       </c>
       <c r="H64">
-        <v>47.394448799999999</v>
+        <v>47.395845250000001</v>
       </c>
       <c r="I64">
-        <v>15853.4</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3870,13 +3870,13 @@
         <v>47.39795917</v>
       </c>
       <c r="G65">
-        <v>8.5440131334519993</v>
+        <v>8.4520578999999998</v>
       </c>
       <c r="H65">
-        <v>47.370646549999996</v>
+        <v>47.397942399999998</v>
       </c>
       <c r="I65">
-        <v>10660.97</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3899,13 +3899,13 @@
         <v>47.397483919999999</v>
       </c>
       <c r="G66">
-        <v>8.7400220500000003</v>
+        <v>8.4520605348206992</v>
       </c>
       <c r="H66">
-        <v>47.496529299999999</v>
+        <v>47.397434799999999</v>
       </c>
       <c r="I66">
-        <v>33832.15</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3928,13 +3928,13 @@
         <v>47.400500860000001</v>
       </c>
       <c r="G67">
-        <v>8.5723484450533807</v>
+        <v>8.4522612000000006</v>
       </c>
       <c r="H67">
-        <v>47.343724399999999</v>
+        <v>47.400514100000002</v>
       </c>
       <c r="I67">
-        <v>14750.82</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3957,13 +3957,13 @@
         <v>47.401080329999999</v>
       </c>
       <c r="G68">
-        <v>8.5725485561882593</v>
+        <v>8.4522125999999993</v>
       </c>
       <c r="H68">
-        <v>47.345119599999997</v>
+        <v>47.401061200000001</v>
       </c>
       <c r="I68">
-        <v>14726.34</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4041,13 +4041,13 @@
         <v>47.411084119999998</v>
       </c>
       <c r="G71">
-        <v>8.6467513</v>
+        <v>8.4511151000000009</v>
       </c>
       <c r="H71">
-        <v>47.6890918</v>
+        <v>47.411176900000001</v>
       </c>
       <c r="I71">
-        <v>37484.269999999997</v>
+        <v>82.03</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -4157,13 +4157,13 @@
         <v>47.413615350000001</v>
       </c>
       <c r="G75">
-        <v>8.5982766999999996</v>
+        <v>8.4523229999999998</v>
       </c>
       <c r="H75">
-        <v>47.235238799999998</v>
+        <v>47.413978499999999</v>
       </c>
       <c r="I75">
-        <v>25441.96</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4244,13 +4244,13 @@
         <v>47.370820500000001</v>
       </c>
       <c r="G78">
-        <v>8.7931463000000001</v>
+        <v>8.4455270999999996</v>
       </c>
       <c r="H78">
-        <v>47.239424200000002</v>
+        <v>47.4150226</v>
       </c>
       <c r="I78">
-        <v>40525.58</v>
+        <v>4929.2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4273,13 +4273,13 @@
         <v>47.371138420000001</v>
       </c>
       <c r="G79">
-        <v>8.5230070999999992</v>
+        <v>8.4622405999999994</v>
       </c>
       <c r="H79">
-        <v>47.567605200000003</v>
+        <v>47.3682546</v>
       </c>
       <c r="I79">
-        <v>22980.27</v>
+        <v>1094.6500000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -4505,13 +4505,13 @@
         <v>47.395109589999997</v>
       </c>
       <c r="G87">
-        <v>8.4514124000000006</v>
+        <v>8.4564512999999994</v>
       </c>
       <c r="H87">
-        <v>47.394919999999999</v>
+        <v>47.393659100000001</v>
       </c>
       <c r="I87">
-        <v>249.41</v>
+        <v>350.39</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4563,13 +4563,13 @@
         <v>47.397069139999999</v>
       </c>
       <c r="G89">
-        <v>8.8535632</v>
+        <v>8.4539986000000003</v>
       </c>
       <c r="H89">
-        <v>47.2582272</v>
+        <v>47.397055100000003</v>
       </c>
       <c r="I89">
-        <v>46986.43</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4679,13 +4679,13 @@
         <v>47.401057129999998</v>
       </c>
       <c r="G93">
-        <v>8.5725722744315203</v>
+        <v>8.4535982576853996</v>
       </c>
       <c r="H93">
-        <v>47.34439725</v>
+        <v>47.401002149999997</v>
       </c>
       <c r="I93">
-        <v>14638.21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4766,13 +4766,13 @@
         <v>47.41187128</v>
       </c>
       <c r="G96">
-        <v>8.4231125999999996</v>
+        <v>8.4458140000000004</v>
       </c>
       <c r="H96">
-        <v>47.397398500000001</v>
+        <v>47.415035699999997</v>
       </c>
       <c r="I96">
-        <v>3734.28</v>
+        <v>921.02</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4911,13 +4911,13 @@
         <v>47.41292206</v>
       </c>
       <c r="G101">
-        <v>8.7466609999999996</v>
+        <v>8.4537186999999996</v>
       </c>
       <c r="H101">
-        <v>47.453813599999997</v>
+        <v>47.412730600000003</v>
       </c>
       <c r="I101">
-        <v>32955.49</v>
+        <v>66.680000000000007</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -5056,13 +5056,13 @@
         <v>47.370348020000002</v>
       </c>
       <c r="G106">
-        <v>8.7116575218016301</v>
+        <v>8.4536067999999993</v>
       </c>
       <c r="H106">
-        <v>47.494345850000002</v>
+        <v>47.370365700000001</v>
       </c>
       <c r="I106">
-        <v>31769.919999999998</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5085,13 +5085,13 @@
         <v>47.371232589999998</v>
       </c>
       <c r="G107">
-        <v>8.5258052000000006</v>
+        <v>8.4582949999999997</v>
       </c>
       <c r="H107">
-        <v>47.352093600000003</v>
+        <v>47.372503000000002</v>
       </c>
       <c r="I107">
-        <v>8271.61</v>
+        <v>509.55</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5288,13 +5288,13 @@
         <v>47.397033139999998</v>
       </c>
       <c r="G114">
-        <v>8.5441196000000001</v>
+        <v>8.4530086000000004</v>
       </c>
       <c r="H114">
-        <v>47.409425300000002</v>
+        <v>47.397156500000001</v>
       </c>
       <c r="I114">
-        <v>10063.61</v>
+        <v>163.98</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5317,13 +5317,13 @@
         <v>47.397672669999999</v>
       </c>
       <c r="G115">
-        <v>8.7440172999999994</v>
+        <v>8.7442413301282098</v>
       </c>
       <c r="H115">
-        <v>47.391371599999999</v>
+        <v>47.391173549999998</v>
       </c>
       <c r="I115">
-        <v>32207.23</v>
+        <v>32232.62</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -5694,13 +5694,13 @@
         <v>47.373214410000003</v>
       </c>
       <c r="G128">
-        <v>8.7312752987907292</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H128">
-        <v>47.507606549999998</v>
+        <v>47.3732854</v>
       </c>
       <c r="I128">
-        <v>33989.589999999997</v>
+        <v>65.72</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5781,13 +5781,13 @@
         <v>47.390855199999997</v>
       </c>
       <c r="G131">
-        <v>8.7409972000000007</v>
+        <v>8.4556357000000002</v>
       </c>
       <c r="H131">
-        <v>47.364438100000001</v>
+        <v>47.391364600000003</v>
       </c>
       <c r="I131">
-        <v>31886.560000000001</v>
+        <v>57.58</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5868,13 +5868,13 @@
         <v>47.396883750000001</v>
       </c>
       <c r="G134">
-        <v>8.6093700000000002</v>
+        <v>8.4562609000000002</v>
       </c>
       <c r="H134">
-        <v>47.4113957</v>
+        <v>47.397346400000004</v>
       </c>
       <c r="I134">
-        <v>17082.05</v>
+        <v>55.85</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5897,13 +5897,13 @@
         <v>47.397664910000003</v>
       </c>
       <c r="G135">
-        <v>8.3958557999999996</v>
+        <v>8.4565134999999998</v>
       </c>
       <c r="H135">
-        <v>47.403971200000001</v>
+        <v>47.3976598</v>
       </c>
       <c r="I135">
-        <v>6785.88</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5926,13 +5926,13 @@
         <v>47.398530870000002</v>
       </c>
       <c r="G136">
-        <v>8.4605976999999992</v>
+        <v>8.4554290999999999</v>
       </c>
       <c r="H136">
-        <v>47.398623000000001</v>
+        <v>47.398678799999999</v>
       </c>
       <c r="I136">
-        <v>551.89</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5955,13 +5955,13 @@
         <v>47.409040830000002</v>
       </c>
       <c r="G137">
-        <v>8.5981853972617905</v>
+        <v>8.4560983000000007</v>
       </c>
       <c r="H137">
-        <v>47.350683750000002</v>
+        <v>47.409003550000001</v>
       </c>
       <c r="I137">
-        <v>17062.560000000001</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5984,13 +5984,13 @@
         <v>47.408909049999998</v>
       </c>
       <c r="G138">
-        <v>8.5973640049586901</v>
+        <v>8.4563957999999992</v>
       </c>
       <c r="H138">
-        <v>47.350672600000003</v>
+        <v>47.4089192</v>
       </c>
       <c r="I138">
-        <v>16938.14</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6042,13 +6042,13 @@
         <v>47.410364680000001</v>
       </c>
       <c r="G140">
-        <v>8.5267196531844291</v>
+        <v>8.4533602499999994</v>
       </c>
       <c r="H140">
-        <v>47.390879750000003</v>
+        <v>47.410926349999997</v>
       </c>
       <c r="I140">
-        <v>8170.37</v>
+        <v>282.42</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6100,13 +6100,13 @@
         <v>47.410302190000003</v>
       </c>
       <c r="G142">
-        <v>8.5270241966854794</v>
+        <v>8.4566759000000005</v>
       </c>
       <c r="H142">
-        <v>47.390724800000001</v>
+        <v>47.410243600000001</v>
       </c>
       <c r="I142">
-        <v>8114.12</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6129,13 +6129,13 @@
         <v>47.411668179999999</v>
       </c>
       <c r="G143">
-        <v>8.7048386191139997</v>
+        <v>8.4561531909580605</v>
       </c>
       <c r="H143">
-        <v>47.490847950000003</v>
+        <v>47.411691150000003</v>
       </c>
       <c r="I143">
-        <v>29000.36</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6158,13 +6158,13 @@
         <v>47.41118676</v>
       </c>
       <c r="G144">
-        <v>8.7039963</v>
+        <v>8.4562466000000001</v>
       </c>
       <c r="H144">
-        <v>47.4895797</v>
+        <v>47.411184400000003</v>
       </c>
       <c r="I144">
-        <v>28872.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6216,13 +6216,13 @@
         <v>47.411964009999998</v>
       </c>
       <c r="G146">
-        <v>8.7048980558836906</v>
+        <v>8.4557798999999996</v>
       </c>
       <c r="H146">
-        <v>47.490602750000001</v>
+        <v>47.411929499999999</v>
       </c>
       <c r="I146">
-        <v>29025.24</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6245,13 +6245,13 @@
         <v>47.412328649999999</v>
       </c>
       <c r="G147">
-        <v>8.4552560999999997</v>
+        <v>8.4565627606225693</v>
       </c>
       <c r="H147">
-        <v>47.410928900000002</v>
+        <v>47.412301450000001</v>
       </c>
       <c r="I147">
-        <v>209.99</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6448,13 +6448,13 @@
         <v>47.393518460000003</v>
       </c>
       <c r="G154">
-        <v>8.4514124000000006</v>
+        <v>8.4564512999999994</v>
       </c>
       <c r="H154">
-        <v>47.394919999999999</v>
+        <v>47.393659100000001</v>
       </c>
       <c r="I154">
-        <v>701.99</v>
+        <v>125.33</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -6477,13 +6477,13 @@
         <v>47.392971729999999</v>
       </c>
       <c r="G155">
-        <v>8.7406780000000008</v>
+        <v>8.4564512999999994</v>
       </c>
       <c r="H155">
-        <v>47.381484700000001</v>
+        <v>47.393659100000001</v>
       </c>
       <c r="I155">
-        <v>31500.91</v>
+        <v>158.16999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -6564,13 +6564,13 @@
         <v>47.402663230000002</v>
       </c>
       <c r="G158">
-        <v>8.4557623999999993</v>
+        <v>8.4570775999999999</v>
       </c>
       <c r="H158">
-        <v>47.401958399999998</v>
+        <v>47.402726199999996</v>
       </c>
       <c r="I158">
-        <v>203.75</v>
+        <v>42.69</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -6593,13 +6593,13 @@
         <v>47.408297679999997</v>
       </c>
       <c r="G159">
-        <v>8.7933637999999998</v>
+        <v>8.4577010000000001</v>
       </c>
       <c r="H159">
-        <v>47.326291750000003</v>
+        <v>47.408270000000002</v>
       </c>
       <c r="I159">
-        <v>38407.19</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -6738,13 +6738,13 @@
         <v>47.369853059999997</v>
       </c>
       <c r="G164">
-        <v>8.4380974999999996</v>
+        <v>8.4394641099148409</v>
       </c>
       <c r="H164">
-        <v>47.356548699999998</v>
+        <v>47.356014850000001</v>
       </c>
       <c r="I164">
-        <v>2697.69</v>
+        <v>2605.21</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6767,13 +6767,13 @@
         <v>47.370096080000003</v>
       </c>
       <c r="G165">
-        <v>8.8371074000000007</v>
+        <v>8.4587347000000008</v>
       </c>
       <c r="H165">
-        <v>47.512668099999999</v>
+        <v>47.369867800000002</v>
       </c>
       <c r="I165">
-        <v>44928.73</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -7086,13 +7086,13 @@
         <v>47.408161319999998</v>
       </c>
       <c r="G176">
-        <v>8.7768570701612898</v>
+        <v>8.4583314000000005</v>
       </c>
       <c r="H176">
-        <v>47.244828550000001</v>
+        <v>47.408099399999998</v>
       </c>
       <c r="I176">
-        <v>39718.36</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7144,13 +7144,13 @@
         <v>47.407774660000001</v>
       </c>
       <c r="G178">
-        <v>8.6061224000000003</v>
+        <v>8.4574923999999996</v>
       </c>
       <c r="H178">
-        <v>47.403333500000002</v>
+        <v>47.407331800000001</v>
       </c>
       <c r="I178">
-        <v>16397.509999999998</v>
+        <v>149.99</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -7173,13 +7173,13 @@
         <v>47.407683030000001</v>
       </c>
       <c r="G179">
-        <v>8.6082389999999993</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H179">
-        <v>47.213699800000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I179">
-        <v>27023.47</v>
+        <v>374.69</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7318,13 +7318,13 @@
         <v>47.412383550000001</v>
       </c>
       <c r="G184">
-        <v>8.5790848000000004</v>
+        <v>8.4591244000000003</v>
       </c>
       <c r="H184">
-        <v>47.424545199999997</v>
+        <v>47.412105099999998</v>
       </c>
       <c r="I184">
-        <v>13440.12</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -7405,13 +7405,13 @@
         <v>47.412872640000003</v>
       </c>
       <c r="G187">
-        <v>8.56650321314652</v>
+        <v>8.4594676</v>
       </c>
       <c r="H187">
-        <v>47.366821950000002</v>
+        <v>47.412927799999999</v>
       </c>
       <c r="I187">
-        <v>12941.32</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -7579,13 +7579,13 @@
         <v>47.369969949999998</v>
       </c>
       <c r="G193">
-        <v>8.8371074000000007</v>
+        <v>8.4587347000000008</v>
       </c>
       <c r="H193">
-        <v>47.512668099999999</v>
+        <v>47.369867800000002</v>
       </c>
       <c r="I193">
-        <v>44888.99</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -7637,13 +7637,13 @@
         <v>47.369710249999997</v>
       </c>
       <c r="G195">
-        <v>8.7312752987907292</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H195">
-        <v>47.507606549999998</v>
+        <v>47.3732854</v>
       </c>
       <c r="I195">
-        <v>33812.51</v>
+        <v>599.44000000000005</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -7666,13 +7666,13 @@
         <v>47.370842269999997</v>
       </c>
       <c r="G196">
-        <v>8.6435469000000005</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H196">
-        <v>47.510445799999999</v>
+        <v>47.3732854</v>
       </c>
       <c r="I196">
-        <v>25650.59</v>
+        <v>455.93</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -7695,13 +7695,13 @@
         <v>47.370558260000003</v>
       </c>
       <c r="G197">
-        <v>8.5118837000000003</v>
+        <v>8.4555140000000009</v>
       </c>
       <c r="H197">
-        <v>47.510674799999997</v>
+        <v>47.3732854</v>
       </c>
       <c r="I197">
-        <v>16472.46</v>
+        <v>550.75</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -7782,13 +7782,13 @@
         <v>47.401021950000001</v>
       </c>
       <c r="G200">
-        <v>8.4087285000000005</v>
+        <v>8.4367667999999991</v>
       </c>
       <c r="H200">
-        <v>47.394954599999998</v>
+        <v>47.4020869</v>
       </c>
       <c r="I200">
-        <v>5770.59</v>
+        <v>2615.7800000000002</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -7811,13 +7811,13 @@
         <v>47.406258280000003</v>
       </c>
       <c r="G201">
-        <v>8.4004002999999994</v>
+        <v>8.4597207000000001</v>
       </c>
       <c r="H201">
-        <v>47.4129085</v>
+        <v>47.406210399999999</v>
       </c>
       <c r="I201">
-        <v>6641.03</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -7869,13 +7869,13 @@
         <v>47.40734767</v>
       </c>
       <c r="G203">
-        <v>8.6114446000000004</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H203">
-        <v>47.214794300000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I203">
-        <v>27061.22</v>
+        <v>308.01</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -7927,13 +7927,13 @@
         <v>47.406697809999997</v>
       </c>
       <c r="G205">
-        <v>8.6114446000000004</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H205">
-        <v>47.214794300000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I205">
-        <v>26977.200000000001</v>
+        <v>323.20999999999998</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -7956,13 +7956,13 @@
         <v>47.406724799999999</v>
       </c>
       <c r="G206">
-        <v>8.6082389999999993</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H206">
-        <v>47.213699800000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I206">
-        <v>26853.03</v>
+        <v>319.77999999999997</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -7985,13 +7985,13 @@
         <v>47.408247629999998</v>
       </c>
       <c r="G207">
-        <v>8.6894738318466391</v>
+        <v>8.4598800000000001</v>
       </c>
       <c r="H207">
-        <v>47.433353199999999</v>
+        <v>47.408332899999998</v>
       </c>
       <c r="I207">
-        <v>25683.06</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -8014,13 +8014,13 @@
         <v>47.407649880000001</v>
       </c>
       <c r="G208">
-        <v>8.6114446000000004</v>
+        <v>8.4622863000000006</v>
       </c>
       <c r="H208">
-        <v>47.214794300000001</v>
+        <v>47.408950900000001</v>
       </c>
       <c r="I208">
-        <v>27086.13</v>
+        <v>288.7</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -8043,13 +8043,13 @@
         <v>47.408811069999999</v>
       </c>
       <c r="G209">
-        <v>8.7415427999999995</v>
+        <v>8.4599659000000003</v>
       </c>
       <c r="H209">
-        <v>47.413678400000002</v>
+        <v>47.408385699999997</v>
       </c>
       <c r="I209">
-        <v>31355.62</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -8072,13 +8072,13 @@
         <v>47.408705689999998</v>
       </c>
       <c r="G210">
-        <v>8.7899632499999996</v>
+        <v>8.4601482000000008</v>
       </c>
       <c r="H210">
-        <v>47.521728000000003</v>
+        <v>47.408656000000001</v>
       </c>
       <c r="I210">
-        <v>38728.07</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -8101,13 +8101,13 @@
         <v>47.41136272</v>
       </c>
       <c r="G211">
-        <v>8.5884785766499103</v>
+        <v>8.4595614978706895</v>
       </c>
       <c r="H211">
-        <v>47.311333050000002</v>
+        <v>47.411379250000003</v>
       </c>
       <c r="I211">
-        <v>18076.52</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -8159,13 +8159,13 @@
         <v>47.411765840000001</v>
       </c>
       <c r="G213">
-        <v>8.4959787999999996</v>
+        <v>8.5965632999999997</v>
       </c>
       <c r="H213">
-        <v>47.4852098</v>
+        <v>47.415112200000003</v>
       </c>
       <c r="I213">
-        <v>8986.44</v>
+        <v>15125.87</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -8304,13 +8304,13 @@
         <v>47.369986189999999</v>
       </c>
       <c r="G218">
-        <v>8.4398076</v>
+        <v>8.5213329891004896</v>
       </c>
       <c r="H218">
-        <v>47.453908499999997</v>
+        <v>47.362971549999997</v>
       </c>
       <c r="I218">
-        <v>9521.58</v>
+        <v>6786.96</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -8362,13 +8362,13 @@
         <v>47.371648370000003</v>
       </c>
       <c r="G220">
-        <v>8.5131992000000007</v>
+        <v>8.4582949999999997</v>
       </c>
       <c r="H220">
-        <v>47.470364600000003</v>
+        <v>47.372503000000002</v>
       </c>
       <c r="I220">
-        <v>12326.91</v>
+        <v>290.45999999999998</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -8391,13 +8391,13 @@
         <v>47.372782430000001</v>
       </c>
       <c r="G221">
-        <v>8.7433543999999994</v>
+        <v>8.4582949999999997</v>
       </c>
       <c r="H221">
-        <v>47.453920099999998</v>
+        <v>47.372503000000002</v>
       </c>
       <c r="I221">
-        <v>32650.39</v>
+        <v>301.33999999999997</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -8420,13 +8420,13 @@
         <v>47.372744279999999</v>
       </c>
       <c r="G222">
-        <v>8.5804799999999997</v>
+        <v>8.4582949999999997</v>
       </c>
       <c r="H222">
-        <v>47.5315029</v>
+        <v>47.372503000000002</v>
       </c>
       <c r="I222">
-        <v>21943.119999999999</v>
+        <v>305.81</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -8449,13 +8449,13 @@
         <v>47.396180469999997</v>
       </c>
       <c r="G223">
-        <v>8.4607322935514002</v>
+        <v>8.4608747820643604</v>
       </c>
       <c r="H223">
-        <v>47.396094050000002</v>
+        <v>47.396168299999999</v>
       </c>
       <c r="I223">
-        <v>10.92</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -8594,13 +8594,13 @@
         <v>47.406343229999997</v>
       </c>
       <c r="G228">
-        <v>8.5852780324995308</v>
+        <v>8.4606440999999997</v>
       </c>
       <c r="H228">
-        <v>47.316892099999997</v>
+        <v>47.406269299999998</v>
       </c>
       <c r="I228">
-        <v>17001.05</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -8855,13 +8855,13 @@
         <v>47.410835769999998</v>
       </c>
       <c r="G237">
-        <v>8.7973336999999994</v>
+        <v>8.4597920999999996</v>
       </c>
       <c r="H237">
-        <v>47.321082099999998</v>
+        <v>47.411147399999997</v>
       </c>
       <c r="I237">
-        <v>38684.629999999997</v>
+        <v>144.57</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -8884,13 +8884,13 @@
         <v>47.411661240000001</v>
       </c>
       <c r="G238">
-        <v>8.7827564000000002</v>
+        <v>8.4591244000000003</v>
       </c>
       <c r="H238">
-        <v>47.255119299999997</v>
+        <v>47.412105099999998</v>
       </c>
       <c r="I238">
-        <v>39736.54</v>
+        <v>190.16</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -8913,13 +8913,13 @@
         <v>47.395543259999997</v>
       </c>
       <c r="G239">
-        <v>8.4627911760557506</v>
+        <v>8.4628029329550802</v>
       </c>
       <c r="H239">
-        <v>47.395502</v>
+        <v>47.395428449999997</v>
       </c>
       <c r="I239">
-        <v>5.48</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -8942,13 +8942,13 @@
         <v>47.400942149999999</v>
       </c>
       <c r="G240">
-        <v>8.4605604999999997</v>
+        <v>8.4620037000000004</v>
       </c>
       <c r="H240">
-        <v>47.401561000000001</v>
+        <v>47.400930199999998</v>
       </c>
       <c r="I240">
-        <v>171.08</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -9000,13 +9000,13 @@
         <v>47.406199039999997</v>
       </c>
       <c r="G242">
-        <v>8.5315204999999992</v>
+        <v>8.4620499000000002</v>
       </c>
       <c r="H242">
-        <v>47.516779700000001</v>
+        <v>47.406358900000001</v>
       </c>
       <c r="I242">
-        <v>14384.08</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -9203,13 +9203,13 @@
         <v>47.41214815</v>
       </c>
       <c r="G249">
-        <v>8.4580687999999995</v>
+        <v>8.7027991788807508</v>
       </c>
       <c r="H249">
-        <v>47.416124000000003</v>
+        <v>47.346501850000003</v>
       </c>
       <c r="I249">
-        <v>649.64</v>
+        <v>27698.57</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -9232,13 +9232,13 @@
         <v>47.412915669999997</v>
       </c>
       <c r="G250">
-        <v>8.4634170999999991</v>
+        <v>8.4630213536098502</v>
       </c>
       <c r="H250">
-        <v>47.413095400000003</v>
+        <v>47.41287655</v>
       </c>
       <c r="I250">
-        <v>47.22</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -9261,13 +9261,13 @@
         <v>47.392524600000002</v>
       </c>
       <c r="G251">
-        <v>8.6734861999999993</v>
+        <v>8.4654921999999999</v>
       </c>
       <c r="H251">
-        <v>47.227657399999998</v>
+        <v>47.395631999999999</v>
       </c>
       <c r="I251">
-        <v>29521.39</v>
+        <v>377.71</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -9319,13 +9319,13 @@
         <v>47.400506479999997</v>
       </c>
       <c r="G253">
-        <v>8.3984164999999997</v>
+        <v>8.4635359000000001</v>
       </c>
       <c r="H253">
-        <v>47.390557399999999</v>
+        <v>47.400541199999999</v>
       </c>
       <c r="I253">
-        <v>7322.93</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -9348,13 +9348,13 @@
         <v>47.401189219999999</v>
       </c>
       <c r="G254">
-        <v>8.7314436999999998</v>
+        <v>8.4663049000000008</v>
       </c>
       <c r="H254">
-        <v>47.489022400000003</v>
+        <v>47.400611499999997</v>
       </c>
       <c r="I254">
-        <v>31376.81</v>
+        <v>367.03</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -9464,13 +9464,13 @@
         <v>47.405792300000002</v>
       </c>
       <c r="G258">
-        <v>8.7387339987878097</v>
+        <v>8.4632839089651792</v>
       </c>
       <c r="H258">
-        <v>47.393070600000001</v>
+        <v>47.405750849999997</v>
       </c>
       <c r="I258">
-        <v>30671.75</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -9493,13 +9493,13 @@
         <v>47.407019599999998</v>
       </c>
       <c r="G259">
-        <v>8.7555282000000005</v>
+        <v>8.4698103000000007</v>
       </c>
       <c r="H259">
-        <v>47.510028400000003</v>
+        <v>47.405694799999999</v>
       </c>
       <c r="I259">
-        <v>34372.94</v>
+        <v>687.75</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -9667,13 +9667,13 @@
         <v>47.374604400000003</v>
       </c>
       <c r="G265">
-        <v>8.4082922</v>
+        <v>8.6548135360417806</v>
       </c>
       <c r="H265">
-        <v>47.519924799999998</v>
+        <v>47.387130399999997</v>
       </c>
       <c r="I265">
-        <v>17146.29</v>
+        <v>21272.86</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -9725,13 +9725,13 @@
         <v>47.395806149999999</v>
       </c>
       <c r="G267">
-        <v>8.5813606</v>
+        <v>8.4654921999999999</v>
       </c>
       <c r="H267">
-        <v>47.266818399999998</v>
+        <v>47.395631999999999</v>
       </c>
       <c r="I267">
-        <v>19188.54</v>
+        <v>35.659999999999997</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -10015,13 +10015,13 @@
         <v>47.410246319999999</v>
       </c>
       <c r="G277">
-        <v>8.6000104000000004</v>
+        <v>8.4658587842860005</v>
       </c>
       <c r="H277">
-        <v>47.302588100000001</v>
+        <v>47.4102259</v>
       </c>
       <c r="I277">
-        <v>19047.22</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -10247,13 +10247,13 @@
         <v>47.397052279999997</v>
       </c>
       <c r="G285">
-        <v>8.6416006000000003</v>
+        <v>8.4535385000000005</v>
       </c>
       <c r="H285">
-        <v>47.692326199999997</v>
+        <v>47.398514499999997</v>
       </c>
       <c r="I285">
-        <v>37809.96</v>
+        <v>1567.11</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -10450,13 +10450,13 @@
         <v>47.40860009</v>
       </c>
       <c r="G292">
-        <v>8.5116669638900397</v>
+        <v>8.46752075777027</v>
       </c>
       <c r="H292">
-        <v>47.397955899999999</v>
+        <v>47.408641350000003</v>
       </c>
       <c r="I292">
-        <v>5045.6499999999996</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
@@ -10653,13 +10653,13 @@
         <v>47.395046710000003</v>
       </c>
       <c r="G299">
-        <v>8.5230070999999992</v>
+        <v>8.4535385000000005</v>
       </c>
       <c r="H299">
-        <v>47.567605200000003</v>
+        <v>47.398514499999997</v>
       </c>
       <c r="I299">
-        <v>19941.46</v>
+        <v>1663.46</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
@@ -10885,13 +10885,13 @@
         <v>47.407549430000003</v>
       </c>
       <c r="G307">
-        <v>8.5230070999999992</v>
+        <v>8.4772829999999999</v>
       </c>
       <c r="H307">
-        <v>47.567605200000003</v>
+        <v>47.405259899999997</v>
       </c>
       <c r="I307">
-        <v>18622.259999999998</v>
+        <v>1009.08</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -10914,13 +10914,13 @@
         <v>47.407449479999997</v>
       </c>
       <c r="G308">
-        <v>8.4594726543317496</v>
+        <v>8.4684909000000008</v>
       </c>
       <c r="H308">
-        <v>47.397736350000002</v>
+        <v>47.407407900000003</v>
       </c>
       <c r="I308">
-        <v>1469.73</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -11175,13 +11175,13 @@
         <v>47.394421010000002</v>
       </c>
       <c r="G317">
-        <v>8.4179867183292494</v>
+        <v>8.4704341006740993</v>
       </c>
       <c r="H317">
-        <v>47.398866550000001</v>
+        <v>47.394379549999996</v>
       </c>
       <c r="I317">
-        <v>5858.46</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -11320,13 +11320,13 @@
         <v>47.40885634</v>
       </c>
       <c r="G322">
-        <v>8.4716854000000001</v>
+        <v>8.4708362514284801</v>
       </c>
       <c r="H322">
-        <v>47.409556000000002</v>
+        <v>47.408802100000003</v>
       </c>
       <c r="I322">
-        <v>126.25</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
@@ -12509,13 +12509,13 @@
         <v>47.396918370000002</v>
       </c>
       <c r="G363">
-        <v>8.4855169999999998</v>
+        <v>8.4821515000000005</v>
       </c>
       <c r="H363">
-        <v>47.392896700000001</v>
+        <v>47.393727200000001</v>
       </c>
       <c r="I363">
-        <v>1579.37</v>
+        <v>1194.54</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
@@ -13147,13 +13147,13 @@
         <v>47.406174290000003</v>
       </c>
       <c r="G385">
-        <v>8.5230070999999992</v>
+        <v>8.4772829999999999</v>
       </c>
       <c r="H385">
-        <v>47.567605200000003</v>
+        <v>47.405259899999997</v>
       </c>
       <c r="I385">
-        <v>18582.82</v>
+        <v>399.37</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
@@ -13205,13 +13205,13 @@
         <v>47.409095499999999</v>
       </c>
       <c r="G387">
-        <v>8.4716854000000001</v>
+        <v>8.47365010501853</v>
       </c>
       <c r="H387">
-        <v>47.409556000000002</v>
+        <v>47.409474750000001</v>
       </c>
       <c r="I387">
-        <v>218.91</v>
+        <v>42.09</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
@@ -13727,13 +13727,13 @@
         <v>47.406706700000001</v>
       </c>
       <c r="G405">
-        <v>8.6740534999999994</v>
+        <v>8.4732593999999999</v>
       </c>
       <c r="H405">
-        <v>47.226747899999999</v>
+        <v>47.406591499999998</v>
       </c>
       <c r="I405">
-        <v>29657.83</v>
+        <v>247.91</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
@@ -13785,13 +13785,13 @@
         <v>47.413746519999997</v>
       </c>
       <c r="G407">
-        <v>8.6478885000000005</v>
+        <v>8.4752967076349499</v>
       </c>
       <c r="H407">
-        <v>47.4455028</v>
+        <v>47.413774699999998</v>
       </c>
       <c r="I407">
-        <v>19510.919999999998</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
@@ -13814,13 +13814,13 @@
         <v>47.381121389999997</v>
       </c>
       <c r="G408">
-        <v>8.5902235000000005</v>
+        <v>8.4760960999999995</v>
       </c>
       <c r="H408">
-        <v>47.491544500000003</v>
+        <v>47.384140000000002</v>
       </c>
       <c r="I408">
-        <v>17587.419999999998</v>
+        <v>333.03</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
@@ -14365,13 +14365,13 @@
         <v>47.406825339999997</v>
       </c>
       <c r="G427">
-        <v>8.8038872144521996</v>
+        <v>8.4759571000000005</v>
       </c>
       <c r="H427">
-        <v>47.320065999999997</v>
+        <v>47.406789799999999</v>
       </c>
       <c r="I427">
-        <v>37710.43</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
@@ -14394,13 +14394,13 @@
         <v>47.406844049999997</v>
       </c>
       <c r="G428">
-        <v>8.8044076491059506</v>
+        <v>8.4763736000000005</v>
       </c>
       <c r="H428">
-        <v>47.31971875</v>
+        <v>47.406853099999999</v>
       </c>
       <c r="I428">
-        <v>37732.589999999997</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
@@ -14423,13 +14423,13 @@
         <v>47.406775269999997</v>
       </c>
       <c r="G429">
-        <v>8.8044824972912394</v>
+        <v>8.4763666000000004</v>
       </c>
       <c r="H429">
-        <v>47.319674499999998</v>
+        <v>47.406818199999996</v>
       </c>
       <c r="I429">
-        <v>37739.379999999997</v>
+        <v>8.7799999999999994</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
@@ -14481,13 +14481,13 @@
         <v>47.413653179999997</v>
       </c>
       <c r="G431">
-        <v>8.4814497000000006</v>
+        <v>8.4763325999999992</v>
       </c>
       <c r="H431">
-        <v>47.4193949</v>
+        <v>47.413657899999997</v>
       </c>
       <c r="I431">
-        <v>849.98</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
@@ -15090,13 +15090,13 @@
         <v>47.390553500000003</v>
       </c>
       <c r="G452">
-        <v>8.4771190000000001</v>
+        <v>8.4775483000000005</v>
       </c>
       <c r="H452">
-        <v>47.389965199999999</v>
+        <v>47.390550400000002</v>
       </c>
       <c r="I452">
-        <v>76.510000000000005</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
@@ -15177,13 +15177,13 @@
         <v>47.390649230000001</v>
       </c>
       <c r="G455">
-        <v>8.4771190000000001</v>
+        <v>8.4778143335843303</v>
       </c>
       <c r="H455">
-        <v>47.389965199999999</v>
+        <v>47.390608550000003</v>
       </c>
       <c r="I455">
-        <v>108.88</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
@@ -15235,13 +15235,13 @@
         <v>47.391394679999998</v>
       </c>
       <c r="G457">
-        <v>8.4794064000000002</v>
+        <v>8.4826303999999997</v>
       </c>
       <c r="H457">
-        <v>47.391005200000002</v>
+        <v>47.389277300000003</v>
       </c>
       <c r="I457">
-        <v>158.41</v>
+        <v>561.69000000000005</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
@@ -15699,13 +15699,13 @@
         <v>47.389885339999999</v>
       </c>
       <c r="G473">
-        <v>8.4787376999999999</v>
+        <v>8.4788005915818392</v>
       </c>
       <c r="H473">
-        <v>47.390049900000001</v>
+        <v>47.389880599999998</v>
       </c>
       <c r="I473">
-        <v>19.77</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
@@ -17033,13 +17033,13 @@
         <v>47.40449169</v>
       </c>
       <c r="G519">
-        <v>8.4810020000000002</v>
+        <v>8.4808225000000004</v>
       </c>
       <c r="H519">
-        <v>47.404826700000001</v>
+        <v>47.404495349999998</v>
       </c>
       <c r="I519">
-        <v>40.93</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.2">
@@ -17236,13 +17236,13 @@
         <v>47.374763870000002</v>
       </c>
       <c r="G526">
-        <v>8.4814305999999995</v>
+        <v>8.4811347999999995</v>
       </c>
       <c r="H526">
-        <v>47.374556800000001</v>
+        <v>47.374772999999998</v>
       </c>
       <c r="I526">
-        <v>39.78</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.2">
@@ -17613,13 +17613,13 @@
         <v>47.381219860000002</v>
       </c>
       <c r="G539">
-        <v>8.4810888000000002</v>
+        <v>8.4808738530216008</v>
       </c>
       <c r="H539">
-        <v>47.3808273</v>
+        <v>47.381219199999997</v>
       </c>
       <c r="I539">
-        <v>47.94</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="540" spans="1:9" x14ac:dyDescent="0.2">
@@ -17700,13 +17700,13 @@
         <v>47.381416469999998</v>
       </c>
       <c r="G542">
-        <v>8.4810382000000004</v>
+        <v>8.4814153999999995</v>
       </c>
       <c r="H542">
-        <v>47.381981199999998</v>
+        <v>47.381419649999998</v>
       </c>
       <c r="I542">
-        <v>74.91</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.2">
@@ -17845,13 +17845,13 @@
         <v>47.385676549999999</v>
       </c>
       <c r="G547">
-        <v>8.4069310000000002</v>
+        <v>8.7027903000000002</v>
       </c>
       <c r="H547">
-        <v>47.393490100000001</v>
+        <v>47.494115950000001</v>
       </c>
       <c r="I547">
-        <v>8238.07</v>
+        <v>27442.36</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.2">
@@ -18164,13 +18164,13 @@
         <v>47.388475390000004</v>
       </c>
       <c r="G558">
-        <v>8.3938313999999998</v>
+        <v>8.4816870625821998</v>
       </c>
       <c r="H558">
-        <v>47.501823299999998</v>
+        <v>47.388466899999997</v>
       </c>
       <c r="I558">
-        <v>15842.86</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.2">
@@ -18860,13 +18860,13 @@
         <v>47.374938800000002</v>
       </c>
       <c r="G582">
-        <v>8.4731231999999999</v>
+        <v>8.4819477499999998</v>
       </c>
       <c r="H582">
-        <v>47.3820689</v>
+        <v>47.374937000000003</v>
       </c>
       <c r="I582">
-        <v>1256.54</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
@@ -18976,13 +18976,13 @@
         <v>47.376914929999998</v>
       </c>
       <c r="G586">
-        <v>8.4820484</v>
+        <v>8.4823328999999994</v>
       </c>
       <c r="H586">
-        <v>47.377327800000003</v>
+        <v>47.376940400000002</v>
       </c>
       <c r="I586">
-        <v>52.63</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
@@ -19034,13 +19034,13 @@
         <v>47.378173740000001</v>
       </c>
       <c r="G588">
-        <v>8.4820393999999997</v>
+        <v>8.4823921000000002</v>
       </c>
       <c r="H588">
-        <v>47.377319100000001</v>
+        <v>47.377857400000003</v>
       </c>
       <c r="I588">
-        <v>94.3</v>
+        <v>47.29</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
@@ -19237,13 +19237,13 @@
         <v>47.381257439999999</v>
       </c>
       <c r="G595">
-        <v>8.4819736999999993</v>
+        <v>8.4824671970808794</v>
       </c>
       <c r="H595">
-        <v>47.381112399999999</v>
+        <v>47.381246050000001</v>
       </c>
       <c r="I595">
-        <v>59.1</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
@@ -19440,13 +19440,13 @@
         <v>47.382649030000003</v>
       </c>
       <c r="G602">
-        <v>8.4819238000000006</v>
+        <v>8.4829677747285395</v>
       </c>
       <c r="H602">
-        <v>47.383341299999998</v>
+        <v>47.382638049999997</v>
       </c>
       <c r="I602">
-        <v>127.27</v>
+        <v>14.21</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -19672,13 +19672,13 @@
         <v>47.387921810000002</v>
       </c>
       <c r="G610">
-        <v>8.4803482999999993</v>
+        <v>8.4823053000000002</v>
       </c>
       <c r="H610">
-        <v>47.388523499999998</v>
+        <v>47.387887499999998</v>
       </c>
       <c r="I610">
-        <v>228.51</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
@@ -20252,13 +20252,13 @@
         <v>47.413464900000001</v>
       </c>
       <c r="G630">
-        <v>8.4819498000000006</v>
+        <v>8.4823685999999991</v>
       </c>
       <c r="H630">
-        <v>47.412935400000002</v>
+        <v>47.413386699999997</v>
       </c>
       <c r="I630">
-        <v>75.92</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
@@ -21238,13 +21238,13 @@
         <v>47.389116610000002</v>
       </c>
       <c r="G664">
-        <v>8.4794064000000002</v>
+        <v>8.4826303999999997</v>
       </c>
       <c r="H664">
-        <v>47.391005200000002</v>
+        <v>47.389277300000003</v>
       </c>
       <c r="I664">
-        <v>555.77</v>
+        <v>157.86000000000001</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
@@ -21383,13 +21383,13 @@
         <v>47.39084373</v>
       </c>
       <c r="G669">
-        <v>8.4839511999999999</v>
+        <v>8.4836766297489596</v>
       </c>
       <c r="H669">
-        <v>47.390559199999998</v>
+        <v>47.390824549999998</v>
       </c>
       <c r="I669">
-        <v>50.67</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
@@ -21528,13 +21528,13 @@
         <v>47.403159379999998</v>
       </c>
       <c r="G674">
-        <v>8.4937293</v>
+        <v>8.4931208999999992</v>
       </c>
       <c r="H674">
-        <v>47.400012500000003</v>
+        <v>47.399709999999999</v>
       </c>
       <c r="I674">
-        <v>1156.23</v>
+        <v>1102.8499999999999</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
@@ -21847,13 +21847,13 @@
         <v>47.37282699</v>
       </c>
       <c r="G685">
-        <v>8.4853331999999995</v>
+        <v>8.4850406165593899</v>
       </c>
       <c r="H685">
-        <v>47.371199599999997</v>
+        <v>47.372839800000001</v>
       </c>
       <c r="I685">
-        <v>182.12</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
@@ -22021,13 +22021,13 @@
         <v>47.37498849</v>
       </c>
       <c r="G691">
-        <v>8.4792356000000009</v>
+        <v>8.4986861999999999</v>
       </c>
       <c r="H691">
-        <v>47.3728069</v>
+        <v>47.377487100000003</v>
       </c>
       <c r="I691">
-        <v>637.08000000000004</v>
+        <v>1597.18</v>
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
@@ -22224,13 +22224,13 @@
         <v>47.381727849999997</v>
       </c>
       <c r="G698">
-        <v>8.4845583999999992</v>
+        <v>8.4844773500000006</v>
       </c>
       <c r="H698">
-        <v>47.381904900000002</v>
+        <v>47.381738949999999</v>
       </c>
       <c r="I698">
-        <v>20.66</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
@@ -22717,13 +22717,13 @@
         <v>47.388413880000002</v>
       </c>
       <c r="G715">
-        <v>8.4854237999999995</v>
+        <v>8.4853057044916795</v>
       </c>
       <c r="H715">
-        <v>47.388020699999998</v>
+        <v>47.388407999999998</v>
       </c>
       <c r="I715">
-        <v>45.62</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.2">
@@ -22862,13 +22862,13 @@
         <v>47.391481939999998</v>
       </c>
       <c r="G720">
-        <v>8.4628531000000002</v>
+        <v>8.4845902629147094</v>
       </c>
       <c r="H720">
-        <v>47.241345799999998</v>
+        <v>47.391442750000003</v>
       </c>
       <c r="I720">
-        <v>16693.830000000002</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.2">
@@ -23268,13 +23268,13 @@
         <v>47.406294279999997</v>
       </c>
       <c r="G734">
-        <v>8.4841227000000003</v>
+        <v>8.4850778555764297</v>
       </c>
       <c r="H734">
-        <v>47.406605599999999</v>
+        <v>47.406316050000001</v>
       </c>
       <c r="I734">
-        <v>110.81</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.2">
@@ -23442,13 +23442,13 @@
         <v>47.410930579999999</v>
       </c>
       <c r="G740">
-        <v>8.4981718999999991</v>
+        <v>8.4897615000000002</v>
       </c>
       <c r="H740">
-        <v>47.403032699999997</v>
+        <v>47.407620399999999</v>
       </c>
       <c r="I740">
-        <v>1605.9</v>
+        <v>552.17999999999995</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.2">
@@ -24689,13 +24689,13 @@
         <v>47.403408380000002</v>
       </c>
       <c r="G783">
-        <v>8.4925566999999997</v>
+        <v>8.4858867</v>
       </c>
       <c r="H783">
-        <v>47.400665600000004</v>
+        <v>47.403636800000001</v>
       </c>
       <c r="I783">
-        <v>769.44</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.2">
@@ -24950,13 +24950,13 @@
         <v>47.406997869999998</v>
       </c>
       <c r="G792">
-        <v>8.4968974999999993</v>
+        <v>8.4880595000000003</v>
       </c>
       <c r="H792">
-        <v>47.403631500000003</v>
+        <v>47.406679099999998</v>
       </c>
       <c r="I792">
-        <v>1174.99</v>
+        <v>136.63</v>
       </c>
     </row>
     <row r="793" spans="1:9" x14ac:dyDescent="0.2">
@@ -24979,13 +24979,13 @@
         <v>47.40694096</v>
       </c>
       <c r="G793">
-        <v>8.4968974999999993</v>
+        <v>8.4880595000000003</v>
       </c>
       <c r="H793">
-        <v>47.403631500000003</v>
+        <v>47.406679099999998</v>
       </c>
       <c r="I793">
-        <v>1150.6099999999999</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="794" spans="1:9" x14ac:dyDescent="0.2">
@@ -25153,13 +25153,13 @@
         <v>47.410613290000001</v>
       </c>
       <c r="G799">
-        <v>8.4981718999999991</v>
+        <v>8.4897615000000002</v>
       </c>
       <c r="H799">
-        <v>47.403032699999997</v>
+        <v>47.407620399999999</v>
       </c>
       <c r="I799">
-        <v>1556.44</v>
+        <v>501.8</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.2">
@@ -25182,13 +25182,13 @@
         <v>47.410191789999999</v>
       </c>
       <c r="G800">
-        <v>8.4981718999999991</v>
+        <v>8.4897615000000002</v>
       </c>
       <c r="H800">
-        <v>47.403032699999997</v>
+        <v>47.407620399999999</v>
       </c>
       <c r="I800">
-        <v>1486.22</v>
+        <v>430.79</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.2">
@@ -25211,13 +25211,13 @@
         <v>47.410037950000003</v>
       </c>
       <c r="G801">
-        <v>8.4981718999999991</v>
+        <v>8.4897615000000002</v>
       </c>
       <c r="H801">
-        <v>47.403032699999997</v>
+        <v>47.407620399999999</v>
       </c>
       <c r="I801">
-        <v>1450.3</v>
+        <v>395.79</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.2">
@@ -25356,13 +25356,13 @@
         <v>47.371617530000002</v>
       </c>
       <c r="G806">
-        <v>8.4867401000000005</v>
+        <v>8.4865914426085105</v>
       </c>
       <c r="H806">
-        <v>47.370702999999999</v>
+        <v>47.371636250000002</v>
       </c>
       <c r="I806">
-        <v>101.87</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.2">
@@ -25965,13 +25965,13 @@
         <v>47.39158492</v>
       </c>
       <c r="G827">
-        <v>8.5149422000000001</v>
+        <v>8.5140170000000008</v>
       </c>
       <c r="H827">
-        <v>47.383026299999997</v>
+        <v>47.383081699999998</v>
       </c>
       <c r="I827">
-        <v>3149.05</v>
+        <v>3049.12</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.2">
@@ -27386,13 +27386,13 @@
         <v>47.386593959999999</v>
       </c>
       <c r="G876">
-        <v>8.4890773999999993</v>
+        <v>8.4893763999999994</v>
       </c>
       <c r="H876">
-        <v>47.3865379</v>
+        <v>47.386563199999998</v>
       </c>
       <c r="I876">
-        <v>31.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.2">
@@ -27647,13 +27647,13 @@
         <v>47.391317190000002</v>
       </c>
       <c r="G885">
-        <v>8.4893332000000008</v>
+        <v>8.4893707999999997</v>
       </c>
       <c r="H885">
-        <v>47.391316699999997</v>
+        <v>47.391260899999999</v>
       </c>
       <c r="I885">
-        <v>3.48</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.2">
@@ -28198,13 +28198,13 @@
         <v>47.369678239999999</v>
       </c>
       <c r="G904">
-        <v>8.4838371000000006</v>
+        <v>8.4899572082610995</v>
       </c>
       <c r="H904">
-        <v>47.373901799999999</v>
+        <v>47.369677799999998</v>
       </c>
       <c r="I904">
-        <v>824.88</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.2">
@@ -28372,13 +28372,13 @@
         <v>47.372826029999999</v>
       </c>
       <c r="G910">
-        <v>8.4896446999999995</v>
+        <v>8.4918431999999999</v>
       </c>
       <c r="H910">
-        <v>47.373598899999998</v>
+        <v>47.369636200000002</v>
       </c>
       <c r="I910">
-        <v>89.64</v>
+        <v>412.14</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.2">
@@ -28517,13 +28517,13 @@
         <v>47.375652049999999</v>
       </c>
       <c r="G915">
-        <v>8.4909596000000001</v>
+        <v>8.4904124278374198</v>
       </c>
       <c r="H915">
-        <v>47.375761599999997</v>
+        <v>47.375647049999998</v>
       </c>
       <c r="I915">
-        <v>60.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.2">
@@ -28923,13 +28923,13 @@
         <v>47.386548939999997</v>
       </c>
       <c r="G929">
-        <v>8.4890773999999993</v>
+        <v>8.4896180999999995</v>
       </c>
       <c r="H929">
-        <v>47.3865379</v>
+        <v>47.386534400000002</v>
       </c>
       <c r="I929">
-        <v>63.39</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.2">
@@ -29039,13 +29039,13 @@
         <v>47.391079120000001</v>
       </c>
       <c r="G933">
-        <v>8.5149422000000001</v>
+        <v>8.5140170000000008</v>
       </c>
       <c r="H933">
-        <v>47.383026299999997</v>
+        <v>47.383081699999998</v>
       </c>
       <c r="I933">
-        <v>2872.46</v>
+        <v>2772.81</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.2">
@@ -29184,13 +29184,13 @@
         <v>47.394779049999997</v>
       </c>
       <c r="G938">
-        <v>8.4904288999999995</v>
+        <v>8.4903122596002003</v>
       </c>
       <c r="H938">
-        <v>47.394772099999997</v>
+        <v>47.394751900000003</v>
       </c>
       <c r="I938">
-        <v>11.14</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.2">
@@ -29445,13 +29445,13 @@
         <v>47.403605689999999</v>
       </c>
       <c r="G947">
-        <v>8.4896215000000002</v>
+        <v>8.4902923909448802</v>
       </c>
       <c r="H947">
-        <v>47.403474600000003</v>
+        <v>47.403614500000003</v>
       </c>
       <c r="I947">
-        <v>76.41</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.2">
@@ -30460,13 +30460,13 @@
         <v>47.386169090000003</v>
       </c>
       <c r="G982">
-        <v>8.4794064000000002</v>
+        <v>8.4826303999999997</v>
       </c>
       <c r="H982">
-        <v>47.391005200000002</v>
+        <v>47.389277300000003</v>
       </c>
       <c r="I982">
-        <v>1477.28</v>
+        <v>1075.3599999999999</v>
       </c>
     </row>
     <row r="983" spans="1:9" x14ac:dyDescent="0.2">
@@ -30547,13 +30547,13 @@
         <v>47.38909555</v>
       </c>
       <c r="G985">
-        <v>8.4891676999999994</v>
+        <v>8.4910268984776192</v>
       </c>
       <c r="H985">
-        <v>47.384303600000003</v>
+        <v>47.389088149999999</v>
       </c>
       <c r="I985">
-        <v>567.04999999999995</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="986" spans="1:9" x14ac:dyDescent="0.2">
@@ -30576,13 +30576,13 @@
         <v>47.389120640000002</v>
       </c>
       <c r="G986">
-        <v>8.4891676999999994</v>
+        <v>8.4910268984776192</v>
       </c>
       <c r="H986">
-        <v>47.384303600000003</v>
+        <v>47.389088149999999</v>
       </c>
       <c r="I986">
-        <v>570.46</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="987" spans="1:9" x14ac:dyDescent="0.2">
@@ -30634,13 +30634,13 @@
         <v>47.391535849999997</v>
       </c>
       <c r="G988">
-        <v>8.4898406000000008</v>
+        <v>8.4916014000000004</v>
       </c>
       <c r="H988">
-        <v>47.392647199999999</v>
+        <v>47.391563900000001</v>
       </c>
       <c r="I988">
-        <v>236.71</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="989" spans="1:9" x14ac:dyDescent="0.2">
